--- a/PEAR.xlsx
+++ b/PEAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXXXX\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA57AE4-C217-49CC-9584-760518D8FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D80352-90FC-4D4B-9843-299442D0A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,15 +210,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">The predefined responses to the survey question can be sightly different. Specifically, most polling questions simply ask if a respondent approves or disapproves of the president, while very few questions break out approval or disapproval into subcategories to indicate whether the respondent ``strongly" or ``somewhat" approves (disapproves) of the president. We  sum up the percentages of both "strongly" and "somewhat" approve choices as the approval rating. </t>
+    <t xml:space="preserve">PEAR index is the simple average value of the approval ratings available in each month. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Some polls may be conducted by one organization but sponsored by another organization. For example, since 1981, ABC News and The Washington Post, both separately and together, have commissioned polls on this issue. These surveys are conducted by themselves and other organizations, including Chilton Research Services, Taylor Nelson Sofres Intersearch, Langer Research Associates, etc. To ensure data consistency, we classify theses polls as conducted by ABC News, The Washington Post, or both.</t>
+    <t xml:space="preserve">The predefined responses to the survey question can be slightly different. Specifically, most polling questions simply ask if a respondent approves or disapproves of the president, while very few questions break out approval or disapproval into subcategories to indicate whether the respondent ``strongly" or ``somewhat" approves (disapproves) of the president. We  sum up the percentages of both "strongly" and "somewhat" approve choices as the approval rating. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">PEAR index is the simple average value of the approval ratings available in each month. </t>
+    <t>Some polls may be conducted by one organization but sponsored by another organization. For example, since 1981, ABC News and The Washington Post, both separately and together, have commissioned polls on this issue. These surveys are conducted by themselves and other organizations, including Chilton Research Services, Taylor Nelson Sofres Intersearch, Langer Research Associates, etc. To ensure data consistency, we classify these polls as conducted by ABC News, The Washington Post, or both.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +704,7 @@
   <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -776,7 +776,7 @@
     </row>
     <row r="12" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -784,7 +784,7 @@
     </row>
     <row r="13" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>

--- a/PEAR.xlsx
+++ b/PEAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/zilinchen_2016_pbs_smu_edu_sg/Documents/XS/projects/Finished/PEAR/main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXXXX\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{3962CAEF-73ED-4A4C-9ADA-C449D5E0034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56DF0EE1-147F-4765-9D0A-4C5917109EE8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304932F8-4055-44ED-B0DD-F5DAA02F1779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -36,10 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>PEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yearmonth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Updated: 02/07/2023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Start_month</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,6 +159,14 @@
   </si>
   <si>
     <t>Winston Group</t>
+  </si>
+  <si>
+    <t>Updated: 02/17/2024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -333,11 +333,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -639,100 +648,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB273AB8-78F0-476A-8A77-9CFD8607F4E6}">
   <dimension ref="A2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="45.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="B15" s="9">
         <v>198109</v>
@@ -744,23 +753,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="9">
         <v>198110</v>
       </c>
       <c r="C16" s="9">
-        <v>202209</v>
+        <v>202309</v>
       </c>
       <c r="D16" s="9">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="9">
         <v>200107</v>
@@ -769,26 +778,26 @@
         <v>202212</v>
       </c>
       <c r="D17" s="9">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="9">
         <v>201703</v>
       </c>
       <c r="C18" s="9">
-        <v>202210</v>
+        <v>202311</v>
       </c>
       <c r="D18" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="9">
         <v>199101</v>
@@ -800,9 +809,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="9">
         <v>198104</v>
@@ -814,9 +823,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="9">
         <v>200912</v>
@@ -828,51 +837,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="9">
         <v>200605</v>
       </c>
       <c r="C22" s="9">
-        <v>202212</v>
+        <v>202310</v>
       </c>
       <c r="D22" s="9">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="9">
         <v>201703</v>
       </c>
       <c r="C23" s="9">
-        <v>202212</v>
+        <v>202311</v>
       </c>
       <c r="D23" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="9">
         <v>199201</v>
       </c>
       <c r="C24" s="9">
-        <v>202208</v>
+        <v>202311</v>
       </c>
       <c r="D24" s="9">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="9">
         <v>200902</v>
@@ -884,9 +893,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="9">
         <v>200507</v>
@@ -898,23 +907,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="9">
         <v>200312</v>
       </c>
       <c r="C27" s="9">
-        <v>200807</v>
+        <v>202310</v>
       </c>
       <c r="D27" s="9">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="9">
         <v>198104</v>
@@ -926,9 +935,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="9">
         <v>200304</v>
@@ -940,23 +949,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="9">
         <v>198807</v>
       </c>
       <c r="C30" s="9">
-        <v>202210</v>
+        <v>202311</v>
       </c>
       <c r="D30" s="9">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="9">
         <v>199410</v>
@@ -968,23 +977,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="9">
         <v>200202</v>
       </c>
       <c r="C32" s="9">
-        <v>202212</v>
+        <v>202312</v>
       </c>
       <c r="D32" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="9">
         <v>199401</v>
@@ -996,9 +1005,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="9">
         <v>200404</v>
@@ -1010,23 +1019,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="9">
         <v>201501</v>
       </c>
       <c r="C35" s="9">
-        <v>202202</v>
+        <v>202309</v>
       </c>
       <c r="D35" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="9">
         <v>201202</v>
@@ -1038,9 +1047,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="11">
         <v>199003</v>
@@ -1052,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="9"/>
     </row>
   </sheetData>
@@ -1068,4027 +1077,4140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.44140625" style="15"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
         <v>198104</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="16">
         <v>60.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>198105</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="16">
         <v>60.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>198106</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>198107</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>198108</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>198109</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>198110</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="16">
         <v>53.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>198111</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>198112</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>198201</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>198202</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>198203</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="16">
         <v>40.25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>198204</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>198205</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="16">
         <v>38.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>198206</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="16">
         <v>38.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
         <v>198207</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="16">
         <v>38.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
         <v>198208</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>198209</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="16">
         <v>38.6666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>198210</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>198211</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>198212</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <v>198301</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="16">
         <v>36.5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
         <v>198302</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="16">
         <v>36.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
         <v>198303</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="16">
         <v>36.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
         <v>198304</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="16">
         <v>42.6666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
         <v>198305</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
         <v>198306</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
         <v>198307</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
         <v>198308</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
         <v>198309</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="16">
         <v>48.1666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
         <v>198310</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
         <v>198311</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="16">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
         <v>198312</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="16">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
         <v>198401</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
         <v>198402</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
         <v>198403</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
         <v>198404</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
         <v>198405</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
         <v>198406</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
         <v>198407</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
         <v>198408</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
         <v>198409</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
         <v>198410</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
         <v>198411</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
         <v>198412</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
         <v>198501</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="16">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
         <v>198502</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
         <v>198503</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
         <v>198504</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
         <v>198505</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
         <v>198506</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
         <v>198507</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="16">
         <v>54.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
         <v>198508</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="16">
         <v>54.5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
         <v>198509</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
         <v>198510</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
         <v>198511</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="16">
         <v>49.5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
         <v>198512</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="16">
         <v>49.5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="15">
         <v>198601</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="15">
         <v>198602</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="15">
         <v>198603</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="16">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="15">
         <v>198604</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="16">
         <v>58.5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
         <v>198605</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="16">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
         <v>198606</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="16">
         <v>54.5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
         <v>198607</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="16">
         <v>54.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="15">
         <v>198608</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="16">
         <v>54.5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="15">
         <v>198609</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="16">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="15">
         <v>198610</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="15">
         <v>198611</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="15">
         <v>198612</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="15">
         <v>198701</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="15">
         <v>198702</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
         <v>198703</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="15">
         <v>198704</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="15">
         <v>198705</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="15">
         <v>198706</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="16">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
         <v>198707</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="16">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="15">
         <v>198708</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="15">
         <v>198709</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="15">
         <v>198710</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="15">
         <v>198711</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="15">
         <v>198712</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="16">
         <v>43.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="15">
         <v>198801</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="16">
         <v>44.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="15">
         <v>198802</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="16">
         <v>44.5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="15">
         <v>198803</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="15">
         <v>198804</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="15">
         <v>198805</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="15">
         <v>198806</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="15">
         <v>198807</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="16">
         <v>48.5</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="15">
         <v>198808</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="15">
         <v>198809</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="15">
         <v>198810</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="15">
         <v>198811</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="15">
         <v>198812</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="15">
         <v>198901</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="16">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="15">
         <v>198902</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="16">
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="15">
         <v>198903</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="16">
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="15">
         <v>198904</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
         <v>198905</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="16">
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="15">
         <v>198906</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="16">
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
         <v>198907</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="16">
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="15">
         <v>198908</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="16">
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="15">
         <v>198909</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="15">
         <v>198910</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="15">
         <v>198911</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="15">
         <v>198912</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="15">
         <v>199001</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="16">
         <v>54.6666666666667</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
         <v>199002</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="16">
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="15">
         <v>199003</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="16">
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="15">
         <v>199004</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="16">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="15">
         <v>199005</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="16">
         <v>51.5</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="15">
         <v>199006</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="15">
         <v>199007</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="15">
         <v>199008</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="15">
         <v>199009</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="16">
         <v>52.5</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="15">
         <v>199010</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="16">
         <v>36.3333333333333</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="15">
         <v>199011</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="15">
         <v>199012</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="15">
         <v>199101</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="15">
         <v>199102</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="15">
         <v>199103</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="16">
         <v>46.5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="15">
         <v>199104</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="16">
         <v>43.5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="15">
         <v>199105</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="16">
         <v>42.5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="15">
         <v>199106</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="16">
         <v>44.3333333333333</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="15">
         <v>199107</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="16">
         <v>44.3333333333333</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="15">
         <v>199108</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="15">
         <v>199109</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="16">
         <v>41.6666666666667</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="15">
         <v>199110</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="16">
         <v>33.1666666666667</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="15">
         <v>199111</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="15">
         <v>199112</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="16">
         <v>23.5</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="15">
         <v>199201</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="16">
         <v>23.2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="15">
         <v>199202</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="15">
         <v>199203</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="16">
         <v>21.5</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="15">
         <v>199204</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="16">
         <v>22.25</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="15">
         <v>199205</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="16">
         <v>19.6666666666667</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="15">
         <v>199206</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="16">
         <v>19.5</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="15">
         <v>199207</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="16">
         <v>20.2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="15">
         <v>199208</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="16">
         <v>19.5</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="15">
         <v>199209</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="15">
         <v>199210</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="16">
         <v>17.5</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="15">
         <v>199211</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="16">
         <v>17.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="15">
         <v>199212</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="15">
         <v>199301</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="15">
         <v>199302</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="15">
         <v>199303</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="15">
         <v>199304</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="16">
         <v>46.6666666666667</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="15">
         <v>199305</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="16">
         <v>37.3333333333333</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="15">
         <v>199306</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="16">
         <v>34.125</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="15">
         <v>199307</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="16">
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="15">
         <v>199308</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="16">
         <v>35.6666666666667</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="15">
         <v>199309</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="16">
         <v>40.25</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="15">
         <v>199310</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="16">
         <v>41.8333333333333</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="15">
         <v>199311</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="16">
         <v>40.3333333333333</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="15">
         <v>199312</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="15">
         <v>199401</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="16">
         <v>46.928571428571402</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="15">
         <v>199402</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="16">
         <v>46.928571428571402</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="15">
         <v>199403</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="16">
         <v>48.75</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="15">
         <v>199404</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="16">
         <v>44.6666666666667</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="15">
         <v>199405</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="15">
         <v>199406</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="16">
         <v>46.2222222222222</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="15">
         <v>199407</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="16">
         <v>40.75</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="15">
         <v>199408</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="15">
         <v>199409</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="16">
         <v>42.1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="15">
         <v>199410</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="15">
         <v>199411</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="16">
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="15">
         <v>199412</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="16">
         <v>43.3333333333333</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="15">
         <v>199501</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="16">
         <v>45.8</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="15">
         <v>199502</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="16">
         <v>46.5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="15">
         <v>199503</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="16">
         <v>46.6666666666667</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="15">
         <v>199504</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="16">
         <v>44.25</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="15">
         <v>199505</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="15">
         <v>199506</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="16">
         <v>44.25</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="15">
         <v>199507</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="16">
         <v>46.5</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="15">
         <v>199508</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="16">
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="15">
         <v>199509</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="15">
         <v>199510</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="15">
         <v>199511</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="15">
         <v>199512</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="15">
         <v>199601</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="16">
         <v>44.5</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="15">
         <v>199602</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="15">
         <v>199603</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="16">
         <v>47.6666666666667</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="15">
         <v>199604</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="15">
         <v>199605</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="16">
         <v>51.5</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="15">
         <v>199606</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="15">
         <v>199607</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="15">
         <v>199608</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="16">
         <v>52.5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="15">
         <v>199609</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="15">
         <v>199610</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="16">
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="15">
         <v>199611</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="16">
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="15">
         <v>199612</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="16">
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="15">
         <v>199701</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="16">
         <v>58.3333333333333</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="15">
         <v>199702</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="16">
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="15">
         <v>199703</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="16">
         <v>57</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="15">
         <v>199704</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="15">
         <v>199705</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="16">
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="15">
         <v>199706</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="16">
         <v>59</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="15">
         <v>199707</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="16">
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="15">
         <v>199708</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="16">
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="15">
         <v>199709</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="16">
         <v>64</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="15">
         <v>199710</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="16">
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="15">
         <v>199711</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="16">
         <v>62</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="15">
         <v>199712</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="16">
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="15">
         <v>199801</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="16">
         <v>67.5</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="15">
         <v>199802</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="16">
         <v>75</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="15">
         <v>199803</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="16">
         <v>75</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="15">
         <v>199804</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="16">
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="15">
         <v>199805</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="16">
         <v>69</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="15">
         <v>199806</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="16">
         <v>69.3333333333333</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="15">
         <v>199807</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="16">
         <v>70.5</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="15">
         <v>199808</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="16">
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="15">
         <v>199809</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="16">
         <v>74.2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="15">
         <v>199810</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="16">
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="15">
         <v>199811</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="16">
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="15">
         <v>199812</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="16">
         <v>75</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="15">
         <v>199901</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="16">
         <v>77</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="15">
         <v>199902</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="16">
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="15">
         <v>199903</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="16">
         <v>76.6666666666667</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="15">
         <v>199904</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="16">
         <v>73.5</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="15">
         <v>199905</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="16">
         <v>73.5</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="15">
         <v>199906</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="16">
         <v>72.75</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="15">
         <v>199907</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="16">
         <v>72.75</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="15">
         <v>199908</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="16">
         <v>72.75</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="15">
         <v>199909</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="16">
         <v>66</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="15">
         <v>199910</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="16">
         <v>70</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="15">
         <v>199911</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="16">
         <v>71</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="15">
         <v>199912</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="16">
         <v>71</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="15">
         <v>200001</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="16">
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="15">
         <v>200002</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="16">
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="15">
         <v>200003</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="16">
         <v>73</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="15">
         <v>200004</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="16">
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="15">
         <v>200005</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="16">
         <v>65</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="15">
         <v>200006</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="16">
         <v>68</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="15">
         <v>200007</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="16">
         <v>72.6666666666667</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="15">
         <v>200008</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="16">
         <v>72.6666666666667</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="15">
         <v>200009</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="16">
         <v>69</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="15">
         <v>200010</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="16">
         <v>70.5</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="15">
         <v>200011</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237" s="16">
         <v>70.5</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="15">
         <v>200012</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="16">
         <v>73.5</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="15">
         <v>200101</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239" s="16">
         <v>74.6666666666667</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="15">
         <v>200102</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="15">
         <v>200103</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="15">
         <v>200104</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="16">
         <v>51.0833333333333</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="15">
         <v>200105</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="16">
         <v>49.3333333333333</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="15">
         <v>200106</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="15">
         <v>200107</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="15">
         <v>200108</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="15">
         <v>200109</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="16">
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="15">
         <v>200110</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="16">
         <v>69.6666666666667</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="15">
         <v>200111</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="16">
         <v>69.5</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="15">
         <v>200112</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="16">
         <v>63.5</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="15">
         <v>200201</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="16">
         <v>60.0555555555556</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="15">
         <v>200202</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="16">
         <v>57.7</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="15">
         <v>200203</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253" s="16">
         <v>57.6666666666667</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="15">
         <v>200204</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254" s="16">
         <v>61.4</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="15">
         <v>200205</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B255" s="16">
         <v>58.3333333333333</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="15">
         <v>200206</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="16">
         <v>55.7</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="15">
         <v>200207</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="16">
         <v>51.642857142857103</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="15">
         <v>200208</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="16">
         <v>46.733333333333299</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="15">
         <v>200209</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="16">
         <v>48.566666666666698</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="15">
         <v>200210</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260" s="16">
         <v>45.946428571428598</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="15">
         <v>200211</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B261" s="16">
         <v>48.6</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="15">
         <v>200212</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262" s="16">
         <v>45.8333333333333</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="15">
         <v>200301</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B263" s="16">
         <v>44.908333333333303</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="15">
         <v>200302</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264" s="16">
         <v>41.4166666666667</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="15">
         <v>200303</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="16">
         <v>44.5833333333333</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="15">
         <v>200304</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="16">
         <v>48.433333333333302</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="15">
         <v>200305</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="16">
         <v>46.642857142857103</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="15">
         <v>200306</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="16">
         <v>45.5</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="15">
         <v>200307</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269" s="16">
         <v>43.476190476190503</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="15">
         <v>200308</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270" s="16">
         <v>41.375</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="15">
         <v>200309</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271" s="16">
         <v>42.7083333333333</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="15">
         <v>200310</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="16">
         <v>40.476190476190503</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="15">
         <v>200311</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273" s="16">
         <v>44.6458333333333</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="15">
         <v>200312</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="16">
         <v>47.0625</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="15">
         <v>200401</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275" s="16">
         <v>46.714285714285701</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="15">
         <v>200402</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276" s="16">
         <v>40.5833333333333</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="15">
         <v>200403</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="16">
         <v>39.714285714285701</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="15">
         <v>200404</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278" s="16">
         <v>42.238095238095198</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="15">
         <v>200405</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B279" s="16">
         <v>39.714285714285701</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="15">
         <v>200406</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280" s="16">
         <v>43.714285714285701</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="15">
         <v>200407</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281" s="16">
         <v>42.6875</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="15">
         <v>200408</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282" s="16">
         <v>42.9375</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="15">
         <v>200409</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="16">
         <v>45.5555555555556</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="15">
         <v>200410</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284" s="16">
         <v>42.814814814814802</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="15">
         <v>200411</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B285" s="16">
         <v>43.375</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="15">
         <v>200412</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286" s="16">
         <v>43.3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="15">
         <v>200501</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287" s="16">
         <v>45.8888888888889</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="15">
         <v>200502</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="16">
         <v>41.625</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="15">
         <v>200503</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289" s="16">
         <v>40.5</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="15">
         <v>200504</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290" s="16">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="15">
         <v>200505</v>
       </c>
-      <c r="B291" s="4">
+      <c r="B291" s="16">
         <v>37.714285714285701</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="15">
         <v>200506</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292" s="16">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="15">
         <v>200507</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293" s="16">
         <v>38.5833333333333</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="15">
         <v>200508</v>
       </c>
-      <c r="B294" s="4">
+      <c r="B294" s="16">
         <v>37.5</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="15">
         <v>200509</v>
       </c>
-      <c r="B295" s="4">
+      <c r="B295" s="16">
         <v>37.3333333333333</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="15">
         <v>200510</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296" s="16">
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="15">
         <v>200511</v>
       </c>
-      <c r="B297" s="4">
+      <c r="B297" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="15">
         <v>200512</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="16">
         <v>39.3125</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="15">
         <v>200601</v>
       </c>
-      <c r="B299" s="4">
+      <c r="B299" s="16">
         <v>38.125</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="15">
         <v>200602</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="16">
         <v>36.642857142857103</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="15">
         <v>200603</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="15">
         <v>200604</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302" s="16">
         <v>35.8333333333333</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="15">
         <v>200605</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="16">
         <v>32.571428571428598</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="15">
         <v>200606</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304" s="16">
         <v>35.6</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="15">
         <v>200607</v>
       </c>
-      <c r="B305" s="4">
+      <c r="B305" s="16">
         <v>35.1666666666667</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="15">
         <v>200608</v>
       </c>
-      <c r="B306" s="4">
+      <c r="B306" s="16">
         <v>35.2083333333333</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="15">
         <v>200609</v>
       </c>
-      <c r="B307" s="4">
+      <c r="B307" s="16">
         <v>37.6</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="15">
         <v>200610</v>
       </c>
-      <c r="B308" s="4">
+      <c r="B308" s="16">
         <v>39.125</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="15">
         <v>200611</v>
       </c>
-      <c r="B309" s="4">
+      <c r="B309" s="16">
         <v>39.3333333333333</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="15">
         <v>200612</v>
       </c>
-      <c r="B310" s="4">
+      <c r="B310" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="15">
         <v>200701</v>
       </c>
-      <c r="B311" s="4">
+      <c r="B311" s="16">
         <v>41.2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="15">
         <v>200702</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B312" s="16">
         <v>39.75</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="15">
         <v>200703</v>
       </c>
-      <c r="B313" s="4">
+      <c r="B313" s="16">
         <v>38.571428571428598</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="15">
         <v>200704</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314" s="16">
         <v>36.5</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="15">
         <v>200705</v>
       </c>
-      <c r="B315" s="4">
+      <c r="B315" s="16">
         <v>34.5</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="15">
         <v>200706</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316" s="16">
         <v>33.4</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="15">
         <v>200707</v>
       </c>
-      <c r="B317" s="4">
+      <c r="B317" s="16">
         <v>31.5</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="15">
         <v>200708</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="15">
         <v>200709</v>
       </c>
-      <c r="B319" s="4">
+      <c r="B319" s="16">
         <v>32.6</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="15">
         <v>200710</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320" s="16">
         <v>25.75</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="15">
         <v>200711</v>
       </c>
-      <c r="B321" s="4">
+      <c r="B321" s="16">
         <v>31.3333333333333</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="15">
         <v>200712</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322" s="16">
         <v>29.25</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="15">
         <v>200801</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="15">
         <v>200802</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324" s="16">
         <v>22.875</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="15">
         <v>200803</v>
       </c>
-      <c r="B325" s="4">
+      <c r="B325" s="16">
         <v>23.375</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="15">
         <v>200804</v>
       </c>
-      <c r="B326" s="4">
+      <c r="B326" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="15">
         <v>200805</v>
       </c>
-      <c r="B327" s="4">
+      <c r="B327" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="15">
         <v>200806</v>
       </c>
-      <c r="B328" s="4">
+      <c r="B328" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="15">
         <v>200807</v>
       </c>
-      <c r="B329" s="4">
+      <c r="B329" s="16">
         <v>19.5</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="15">
         <v>200808</v>
       </c>
-      <c r="B330" s="4">
+      <c r="B330" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="15">
         <v>200809</v>
       </c>
-      <c r="B331" s="4">
+      <c r="B331" s="16">
         <v>18.6666666666667</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="15">
         <v>200810</v>
       </c>
-      <c r="B332" s="4">
+      <c r="B332" s="16">
         <v>19.3333333333333</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="15">
         <v>200811</v>
       </c>
-      <c r="B333" s="4">
+      <c r="B333" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="15">
         <v>200812</v>
       </c>
-      <c r="B334" s="4">
+      <c r="B334" s="16">
         <v>22.5</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="15">
         <v>200901</v>
       </c>
-      <c r="B335" s="4">
+      <c r="B335" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="15">
         <v>200902</v>
       </c>
-      <c r="B336" s="4">
+      <c r="B336" s="16">
         <v>58.571428571428598</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="15">
         <v>200903</v>
       </c>
-      <c r="B337" s="4">
+      <c r="B337" s="16">
         <v>58.25</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="15">
         <v>200904</v>
       </c>
-      <c r="B338" s="4">
+      <c r="B338" s="16">
         <v>55.357142857142897</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="15">
         <v>200905</v>
       </c>
-      <c r="B339" s="4">
+      <c r="B339" s="16">
         <v>57.5</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="15">
         <v>200906</v>
       </c>
-      <c r="B340" s="4">
+      <c r="B340" s="16">
         <v>52.8333333333333</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="15">
         <v>200907</v>
       </c>
-      <c r="B341" s="4">
+      <c r="B341" s="16">
         <v>48.1111111111111</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="15">
         <v>200908</v>
       </c>
-      <c r="B342" s="4">
+      <c r="B342" s="16">
         <v>50.5</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="15">
         <v>200909</v>
       </c>
-      <c r="B343" s="4">
+      <c r="B343" s="16">
         <v>49.142857142857103</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="15">
         <v>200910</v>
       </c>
-      <c r="B344" s="4">
+      <c r="B344" s="16">
         <v>49.5</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="15">
         <v>200911</v>
       </c>
-      <c r="B345" s="4">
+      <c r="B345" s="16">
         <v>47.2</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="15">
         <v>200912</v>
       </c>
-      <c r="B346" s="4">
+      <c r="B346" s="16">
         <v>45.3125</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="15">
         <v>201001</v>
       </c>
-      <c r="B347" s="4">
+      <c r="B347" s="16">
         <v>43.8333333333333</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="15">
         <v>201002</v>
       </c>
-      <c r="B348" s="4">
+      <c r="B348" s="16">
         <v>41.4</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="15">
         <v>201003</v>
       </c>
-      <c r="B349" s="4">
+      <c r="B349" s="16">
         <v>44.428571428571402</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="15">
         <v>201004</v>
       </c>
-      <c r="B350" s="4">
+      <c r="B350" s="16">
         <v>43.285714285714299</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="15">
         <v>201005</v>
       </c>
-      <c r="B351" s="4">
+      <c r="B351" s="16">
         <v>44.928571428571402</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="15">
         <v>201006</v>
       </c>
-      <c r="B352" s="4">
+      <c r="B352" s="16">
         <v>44.125</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="15">
         <v>201007</v>
       </c>
-      <c r="B353" s="4">
+      <c r="B353" s="16">
         <v>41.6</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="15">
         <v>201008</v>
       </c>
-      <c r="B354" s="4">
+      <c r="B354" s="16">
         <v>41.5</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="15">
         <v>201009</v>
       </c>
-      <c r="B355" s="4">
+      <c r="B355" s="16">
         <v>41.571428571428598</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="15">
         <v>201010</v>
       </c>
-      <c r="B356" s="4">
+      <c r="B356" s="16">
         <v>43.928571428571402</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="15">
         <v>201011</v>
       </c>
-      <c r="B357" s="4">
+      <c r="B357" s="16">
         <v>39.714285714285701</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="15">
         <v>201012</v>
       </c>
-      <c r="B358" s="4">
+      <c r="B358" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="15">
         <v>201101</v>
       </c>
-      <c r="B359" s="4">
+      <c r="B359" s="16">
         <v>43.625</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="15">
         <v>201102</v>
       </c>
-      <c r="B360" s="4">
+      <c r="B360" s="16">
         <v>40.3333333333333</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="15">
         <v>201103</v>
       </c>
-      <c r="B361" s="4">
+      <c r="B361" s="16">
         <v>40.3333333333333</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="15">
         <v>201104</v>
       </c>
-      <c r="B362" s="4">
+      <c r="B362" s="16">
         <v>40.25</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="15">
         <v>201105</v>
       </c>
-      <c r="B363" s="4">
+      <c r="B363" s="16">
         <v>41.214285714285701</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="15">
         <v>201106</v>
       </c>
-      <c r="B364" s="4">
+      <c r="B364" s="16">
         <v>39.3333333333333</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="15">
         <v>201107</v>
       </c>
-      <c r="B365" s="4">
+      <c r="B365" s="16">
         <v>40.5</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="15">
         <v>201108</v>
       </c>
-      <c r="B366" s="4">
+      <c r="B366" s="16">
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="15">
         <v>201109</v>
       </c>
-      <c r="B367" s="4">
+      <c r="B367" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="15">
         <v>201110</v>
       </c>
-      <c r="B368" s="4">
+      <c r="B368" s="16">
         <v>37.25</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="15">
         <v>201111</v>
       </c>
-      <c r="B369" s="4">
+      <c r="B369" s="16">
         <v>35.125</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="15">
         <v>201112</v>
       </c>
-      <c r="B370" s="4">
+      <c r="B370" s="16">
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="15">
         <v>201201</v>
       </c>
-      <c r="B371" s="4">
+      <c r="B371" s="16">
         <v>39.5</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="15">
         <v>201202</v>
       </c>
-      <c r="B372" s="4">
+      <c r="B372" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="15">
         <v>201203</v>
       </c>
-      <c r="B373" s="4">
+      <c r="B373" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="15">
         <v>201204</v>
       </c>
-      <c r="B374" s="4">
+      <c r="B374" s="16">
         <v>43.6</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="15">
         <v>201205</v>
       </c>
-      <c r="B375" s="4">
+      <c r="B375" s="16">
         <v>42.4</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="15">
         <v>201206</v>
       </c>
-      <c r="B376" s="4">
+      <c r="B376" s="16">
         <v>42.3333333333333</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="15">
         <v>201207</v>
       </c>
-      <c r="B377" s="4">
+      <c r="B377" s="16">
         <v>42.2</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="15">
         <v>201208</v>
       </c>
-      <c r="B378" s="4">
+      <c r="B378" s="16">
         <v>41.4</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="15">
         <v>201209</v>
       </c>
-      <c r="B379" s="4">
+      <c r="B379" s="16">
         <v>46.1666666666667</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="15">
         <v>201210</v>
       </c>
-      <c r="B380" s="4">
+      <c r="B380" s="16">
         <v>45.5</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="15">
         <v>201211</v>
       </c>
-      <c r="B381" s="4">
+      <c r="B381" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="15">
         <v>201212</v>
       </c>
-      <c r="B382" s="4">
+      <c r="B382" s="16">
         <v>46.6</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="15">
         <v>201301</v>
       </c>
-      <c r="B383" s="4">
+      <c r="B383" s="16">
         <v>47.3333333333333</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="15">
         <v>201302</v>
       </c>
-      <c r="B384" s="4">
+      <c r="B384" s="16">
         <v>42.6</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="15">
         <v>201303</v>
       </c>
-      <c r="B385" s="4">
+      <c r="B385" s="16">
         <v>41</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="15">
         <v>201304</v>
       </c>
-      <c r="B386" s="4">
+      <c r="B386" s="16">
         <v>44.4</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="15">
         <v>201305</v>
       </c>
-      <c r="B387" s="4">
+      <c r="B387" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="15">
         <v>201306</v>
       </c>
-      <c r="B388" s="4">
+      <c r="B388" s="16">
         <v>43.2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="15">
         <v>201307</v>
       </c>
-      <c r="B389" s="4">
+      <c r="B389" s="16">
         <v>43.2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="15">
         <v>201308</v>
       </c>
-      <c r="B390" s="4">
+      <c r="B390" s="16">
         <v>39.5</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="15">
         <v>201309</v>
       </c>
-      <c r="B391" s="4">
+      <c r="B391" s="16">
         <v>43.1875</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="15">
         <v>201310</v>
       </c>
-      <c r="B392" s="4">
+      <c r="B392" s="16">
         <v>37.25</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="15">
         <v>201311</v>
       </c>
-      <c r="B393" s="4">
+      <c r="B393" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="15">
         <v>201312</v>
       </c>
-      <c r="B394" s="4">
+      <c r="B394" s="16">
         <v>38.3125</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="15">
         <v>201401</v>
       </c>
-      <c r="B395" s="4">
+      <c r="B395" s="16">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="15">
         <v>201402</v>
       </c>
-      <c r="B396" s="4">
+      <c r="B396" s="16">
         <v>40.25</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="15">
         <v>201403</v>
       </c>
-      <c r="B397" s="4">
+      <c r="B397" s="16">
         <v>36.6666666666667</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="15">
         <v>201404</v>
       </c>
-      <c r="B398" s="4">
+      <c r="B398" s="16">
         <v>41.75</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="15">
         <v>201405</v>
       </c>
-      <c r="B399" s="4">
+      <c r="B399" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="15">
         <v>201406</v>
       </c>
-      <c r="B400" s="4">
+      <c r="B400" s="16">
         <v>38.5</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="15">
         <v>201407</v>
       </c>
-      <c r="B401" s="4">
+      <c r="B401" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="15">
         <v>201408</v>
       </c>
-      <c r="B402" s="4">
+      <c r="B402" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="15">
         <v>201409</v>
       </c>
-      <c r="B403" s="4">
+      <c r="B403" s="16">
         <v>41.1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="15">
         <v>201410</v>
       </c>
-      <c r="B404" s="4">
+      <c r="B404" s="16">
         <v>39.1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="15">
         <v>201411</v>
       </c>
-      <c r="B405" s="4">
+      <c r="B405" s="16">
         <v>43.5</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="15">
         <v>201412</v>
       </c>
-      <c r="B406" s="4">
+      <c r="B406" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="15">
         <v>201501</v>
       </c>
-      <c r="B407" s="4">
+      <c r="B407" s="16">
         <v>47.75</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="15">
         <v>201502</v>
       </c>
-      <c r="B408" s="4">
+      <c r="B408" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="15">
         <v>201503</v>
       </c>
-      <c r="B409" s="4">
+      <c r="B409" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="15">
         <v>201504</v>
       </c>
-      <c r="B410" s="4">
+      <c r="B410" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="15">
         <v>201505</v>
       </c>
-      <c r="B411" s="4">
+      <c r="B411" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="15">
         <v>201506</v>
       </c>
-      <c r="B412" s="4">
+      <c r="B412" s="16">
         <v>48.5</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="15">
         <v>201507</v>
       </c>
-      <c r="B413" s="4">
+      <c r="B413" s="16">
         <v>41.75</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="15">
         <v>201508</v>
       </c>
-      <c r="B414" s="4">
+      <c r="B414" s="16">
         <v>45.3333333333333</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="15">
         <v>201509</v>
       </c>
-      <c r="B415" s="4">
+      <c r="B415" s="16">
         <v>46.3333333333333</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="15">
         <v>201510</v>
       </c>
-      <c r="B416" s="4">
+      <c r="B416" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="15">
         <v>201511</v>
       </c>
-      <c r="B417" s="4">
+      <c r="B417" s="16">
         <v>44.8</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="15">
         <v>201512</v>
       </c>
-      <c r="B418" s="4">
+      <c r="B418" s="16">
         <v>46.4</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="15">
         <v>201601</v>
       </c>
-      <c r="B419" s="4">
+      <c r="B419" s="16">
         <v>45.3333333333333</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="15">
         <v>201602</v>
       </c>
-      <c r="B420" s="4">
+      <c r="B420" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="15">
         <v>201603</v>
       </c>
-      <c r="B421" s="4">
+      <c r="B421" s="16">
         <v>48.5</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="15">
         <v>201604</v>
       </c>
-      <c r="B422" s="4">
+      <c r="B422" s="16">
         <v>47.3333333333333</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="15">
         <v>201605</v>
       </c>
-      <c r="B423" s="4">
+      <c r="B423" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="15">
         <v>201606</v>
       </c>
-      <c r="B424" s="4">
+      <c r="B424" s="16">
         <v>50.75</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="15">
         <v>201607</v>
       </c>
-      <c r="B425" s="4">
+      <c r="B425" s="16">
         <v>44.3333333333333</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="15">
         <v>201608</v>
       </c>
-      <c r="B426" s="4">
+      <c r="B426" s="16">
         <v>47.5</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="15">
         <v>201609</v>
       </c>
-      <c r="B427" s="4">
+      <c r="B427" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="15">
         <v>201610</v>
       </c>
-      <c r="B428" s="4">
+      <c r="B428" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="15">
         <v>201611</v>
       </c>
-      <c r="B429" s="4">
+      <c r="B429" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="15">
         <v>201612</v>
       </c>
-      <c r="B430" s="4">
+      <c r="B430" s="16">
         <v>52.5</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="15">
         <v>201701</v>
       </c>
-      <c r="B431" s="4">
+      <c r="B431" s="16">
         <v>57</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="15">
         <v>201702</v>
       </c>
-      <c r="B432" s="4">
+      <c r="B432" s="16">
         <v>44.6666666666667</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="15">
         <v>201703</v>
       </c>
-      <c r="B433" s="4">
+      <c r="B433" s="16">
         <v>47.0833333333333</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="15">
         <v>201704</v>
       </c>
-      <c r="B434" s="4">
+      <c r="B434" s="16">
         <v>44.714285714285701</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="15">
         <v>201705</v>
       </c>
-      <c r="B435" s="4">
+      <c r="B435" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="15">
         <v>201706</v>
       </c>
-      <c r="B436" s="4">
+      <c r="B436" s="16">
         <v>43.5</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="15">
         <v>201707</v>
       </c>
-      <c r="B437" s="4">
+      <c r="B437" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="15">
         <v>201708</v>
       </c>
-      <c r="B438" s="4">
+      <c r="B438" s="16">
         <v>44.3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="15">
         <v>201709</v>
       </c>
-      <c r="B439" s="4">
+      <c r="B439" s="16">
         <v>43.714285714285701</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="15">
         <v>201710</v>
       </c>
-      <c r="B440" s="4">
+      <c r="B440" s="16">
         <v>41.8</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="15">
         <v>201711</v>
       </c>
-      <c r="B441" s="4">
+      <c r="B441" s="16">
         <v>42.5</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="15">
         <v>201712</v>
       </c>
-      <c r="B442" s="4">
+      <c r="B442" s="16">
         <v>41.8333333333333</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="15">
         <v>201801</v>
       </c>
-      <c r="B443" s="4">
+      <c r="B443" s="16">
         <v>46.2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="15">
         <v>201802</v>
       </c>
-      <c r="B444" s="4">
+      <c r="B444" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="15">
         <v>201803</v>
       </c>
-      <c r="B445" s="4">
+      <c r="B445" s="16">
         <v>45.857142857142897</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="15">
         <v>201804</v>
       </c>
-      <c r="B446" s="4">
+      <c r="B446" s="16">
         <v>43.75</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="15">
         <v>201805</v>
       </c>
-      <c r="B447" s="4">
+      <c r="B447" s="16">
         <v>45.6666666666667</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="15">
         <v>201806</v>
       </c>
-      <c r="B448" s="4">
+      <c r="B448" s="16">
         <v>48.8333333333333</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="15">
         <v>201807</v>
       </c>
-      <c r="B449" s="4">
+      <c r="B449" s="16">
         <v>48.2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="15">
         <v>201808</v>
       </c>
-      <c r="B450" s="4">
+      <c r="B450" s="16">
         <v>47.3333333333333</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="15">
         <v>201809</v>
       </c>
-      <c r="B451" s="4">
+      <c r="B451" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="15">
         <v>201810</v>
       </c>
-      <c r="B452" s="4">
+      <c r="B452" s="16">
         <v>47.25</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="15">
         <v>201811</v>
       </c>
-      <c r="B453" s="4">
+      <c r="B453" s="16">
         <v>50.2</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="15">
         <v>201812</v>
       </c>
-      <c r="B454" s="4">
+      <c r="B454" s="16">
         <v>46.5</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="15">
         <v>201901</v>
       </c>
-      <c r="B455" s="4">
+      <c r="B455" s="16">
         <v>45.9166666666667</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="15">
         <v>201902</v>
       </c>
-      <c r="B456" s="4">
+      <c r="B456" s="16">
         <v>49</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="15">
         <v>201903</v>
       </c>
-      <c r="B457" s="4">
+      <c r="B457" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="15">
         <v>201904</v>
       </c>
-      <c r="B458" s="4">
+      <c r="B458" s="16">
         <v>41</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="15">
         <v>201905</v>
       </c>
-      <c r="B459" s="4">
+      <c r="B459" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="15">
         <v>201906</v>
       </c>
-      <c r="B460" s="4">
+      <c r="B460" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="15">
         <v>201907</v>
       </c>
-      <c r="B461" s="4">
+      <c r="B461" s="16">
         <v>49.3333333333333</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="15">
         <v>201908</v>
       </c>
-      <c r="B462" s="4">
+      <c r="B462" s="16">
         <v>47.6666666666667</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="15">
         <v>201909</v>
       </c>
-      <c r="B463" s="4">
+      <c r="B463" s="16">
         <v>47.285714285714299</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="15">
         <v>201910</v>
       </c>
-      <c r="B464" s="4">
+      <c r="B464" s="16">
         <v>46.9</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="15">
         <v>201911</v>
       </c>
-      <c r="B465" s="4">
+      <c r="B465" s="16">
         <v>50.3333333333333</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="15">
         <v>201912</v>
       </c>
-      <c r="B466" s="4">
+      <c r="B466" s="16">
         <v>47.6666666666667</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="13">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="17">
         <v>202001</v>
       </c>
-      <c r="B467" s="14">
+      <c r="B467" s="18">
         <v>53.714285714285701</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="13">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="17">
         <v>202002</v>
       </c>
-      <c r="B468" s="14">
+      <c r="B468" s="18">
         <v>49.6666666666667</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="13">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="17">
         <v>202003</v>
       </c>
-      <c r="B469" s="14">
+      <c r="B469" s="18">
         <v>49.1666666666667</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="13">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="17">
         <v>202004</v>
       </c>
-      <c r="B470" s="14">
+      <c r="B470" s="18">
         <v>49.142857142857103</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="13">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="17">
         <v>202005</v>
       </c>
-      <c r="B471" s="14">
+      <c r="B471" s="18">
         <v>47.3333333333333</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="13">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="17">
         <v>202006</v>
       </c>
-      <c r="B472" s="14">
+      <c r="B472" s="18">
         <v>46.857142857142897</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="13">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="17">
         <v>202007</v>
       </c>
-      <c r="B473" s="14">
+      <c r="B473" s="18">
         <v>46.7916666666667</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="13">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="17">
         <v>202008</v>
       </c>
-      <c r="B474" s="14">
+      <c r="B474" s="18">
         <v>47</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="13">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="17">
         <v>202009</v>
       </c>
-      <c r="B475" s="14">
+      <c r="B475" s="18">
         <v>48.232142857142897</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="13">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="17">
         <v>202010</v>
       </c>
-      <c r="B476" s="14">
+      <c r="B476" s="18">
         <v>47.851851851851897</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="13">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="17">
         <v>202011</v>
       </c>
-      <c r="B477" s="14">
+      <c r="B477" s="18">
         <v>40</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="13">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="17">
         <v>202012</v>
       </c>
-      <c r="B478" s="14">
+      <c r="B478" s="18">
         <v>48.25</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="13">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="17">
         <v>202101</v>
       </c>
-      <c r="B479" s="14">
+      <c r="B479" s="18">
         <v>47.3333333333333</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="13">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="17">
         <v>202102</v>
       </c>
-      <c r="B480" s="14">
+      <c r="B480" s="18">
         <v>54</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="13">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="17">
         <v>202103</v>
       </c>
-      <c r="B481" s="14">
+      <c r="B481" s="18">
         <v>54.875</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="13">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="17">
         <v>202104</v>
       </c>
-      <c r="B482" s="14">
+      <c r="B482" s="18">
         <v>52.625</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="13">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="17">
         <v>202105</v>
       </c>
-      <c r="B483" s="14">
+      <c r="B483" s="18">
         <v>52.25</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="13">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="17">
         <v>202106</v>
       </c>
-      <c r="B484" s="14">
+      <c r="B484" s="18">
         <v>49.75</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="13">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="17">
         <v>202107</v>
       </c>
-      <c r="B485" s="14">
+      <c r="B485" s="18">
         <v>53</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="13">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="17">
         <v>202108</v>
       </c>
-      <c r="B486" s="14">
+      <c r="B486" s="18">
         <v>46</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="13">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="17">
         <v>202109</v>
       </c>
-      <c r="B487" s="14">
+      <c r="B487" s="18">
         <v>47.25</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="13">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="17">
         <v>202110</v>
       </c>
-      <c r="B488" s="14">
+      <c r="B488" s="18">
         <v>42</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="13">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="17">
         <v>202111</v>
       </c>
-      <c r="B489" s="14">
+      <c r="B489" s="18">
         <v>37.875</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="13">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="17">
         <v>202112</v>
       </c>
-      <c r="B490" s="14">
+      <c r="B490" s="18">
         <v>42.25</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="13">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="17">
         <v>202201</v>
       </c>
-      <c r="B491" s="14">
+      <c r="B491" s="18">
         <v>39</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="13">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="17">
         <v>202202</v>
       </c>
-      <c r="B492" s="14">
+      <c r="B492" s="18">
         <v>37.125</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="13">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="17">
         <v>202203</v>
       </c>
-      <c r="B493" s="14">
+      <c r="B493" s="18">
         <v>37.857142857142897</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="13">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="17">
         <v>202204</v>
       </c>
-      <c r="B494" s="14">
+      <c r="B494" s="18">
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="13">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="17">
         <v>202205</v>
       </c>
-      <c r="B495" s="14">
+      <c r="B495" s="18">
         <v>34.25</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="13">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="17">
         <v>202206</v>
       </c>
-      <c r="B496" s="14">
+      <c r="B496" s="18">
         <v>31.75</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="13">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="17">
         <v>202207</v>
       </c>
-      <c r="B497" s="14">
+      <c r="B497" s="18">
         <v>30.75</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="13">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="17">
         <v>202208</v>
       </c>
-      <c r="B498" s="14">
+      <c r="B498" s="18">
         <v>35.6</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="13">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="17">
         <v>202209</v>
       </c>
-      <c r="B499" s="14">
+      <c r="B499" s="18">
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="13">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" s="17">
         <v>202210</v>
       </c>
-      <c r="B500" s="14">
+      <c r="B500" s="18">
         <v>38</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="13">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" s="17">
         <v>202211</v>
       </c>
-      <c r="B501" s="14">
+      <c r="B501" s="18">
         <v>37.5</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="13">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="17">
         <v>202212</v>
       </c>
-      <c r="B502" s="14">
+      <c r="B502" s="18">
         <v>38.75</v>
       </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" s="15">
+        <v>202301</v>
+      </c>
+      <c r="B503" s="16">
+        <v>36.75</v>
+      </c>
+      <c r="C503" s="4"/>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="15">
+        <v>202302</v>
+      </c>
+      <c r="B504" s="16">
+        <v>37.3333333333333</v>
+      </c>
+      <c r="C504" s="4"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="15">
+        <v>202303</v>
+      </c>
+      <c r="B505" s="16">
+        <v>35.5</v>
+      </c>
+      <c r="C505" s="4"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="15">
+        <v>202304</v>
+      </c>
+      <c r="B506" s="16">
+        <v>37.25</v>
+      </c>
+      <c r="C506" s="4"/>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" s="15">
+        <v>202305</v>
+      </c>
+      <c r="B507" s="16">
+        <v>34.1666666666667</v>
+      </c>
+      <c r="C507" s="4"/>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" s="15">
+        <v>202306</v>
+      </c>
+      <c r="B508" s="16">
+        <v>36.4</v>
+      </c>
+      <c r="C508" s="4"/>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="15">
+        <v>202307</v>
+      </c>
+      <c r="B509" s="16">
+        <v>36.6666666666667</v>
+      </c>
+      <c r="C509" s="4"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="15">
+        <v>202308</v>
+      </c>
+      <c r="B510" s="16">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C510" s="4"/>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" s="15">
+        <v>202309</v>
+      </c>
+      <c r="B511" s="16">
+        <v>33.928571428571402</v>
+      </c>
+      <c r="C511" s="4"/>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" s="15">
+        <v>202310</v>
+      </c>
+      <c r="B512" s="16">
+        <v>35.6666666666667</v>
+      </c>
+      <c r="C512" s="4"/>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" s="15">
+        <v>202311</v>
+      </c>
+      <c r="B513" s="16">
+        <v>34.6666666666667</v>
+      </c>
+      <c r="C513" s="4"/>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="15">
+        <v>202312</v>
+      </c>
+      <c r="B514" s="16">
+        <v>38.5</v>
+      </c>
+      <c r="C514" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
